--- a/MISLAND/data/summary_table_urban.xlsx
+++ b/MISLAND/data/summary_table_urban.xlsx
@@ -1,45 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/CI/TrendsEarth/trends.earth/LDMP/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\trends.earth\MISLAND\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80970863-1497-F244-9B86-BDE736B16FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE31C0D-C1C1-43C2-B552-C9FBBBC4FD25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 11.3.1 Summary Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Analysis notes:</t>
   </si>
   <si>
     <t>The boundaries, names, and designations used in this report do not imply official endorsement or acceptance by Conservation International Foundation, or its partner organizations and contributors.  This report is available under the terms of Creative Commons Attribution 4.0 International License (CC BY 4.0).</t>
-  </si>
-  <si>
-    <t>For more information on Trends.Earth, see http://trends.earth, or contact the team at trends.earth@conservation.org.</t>
-  </si>
-  <si>
-    <t>Trends.Earth SDG 11.3.1 summary table</t>
   </si>
   <si>
     <t>Summary of population growth rate and land consumption</t>
@@ -127,6 +113,9 @@
   <si>
     <t>City area change
 (hectares)</t>
+  </si>
+  <si>
+    <t>Misland SDG 11.3.1 summary table</t>
   </si>
 </sst>
 </file>
@@ -134,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -317,7 +306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,16 +325,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -367,12 +356,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,7 +377,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,7 +401,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -746,7 +735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-KE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573671304"/>
@@ -834,7 +823,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-KE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -866,7 +855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-KE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573666384"/>
@@ -937,7 +926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-KE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -969,7 +958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-KE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573681144"/>
@@ -1035,7 +1024,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-KE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1945,23 +1934,23 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="7" customWidth="1"/>
-    <col min="3" max="6" width="21.1640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="7"/>
+    <col min="2" max="2" width="21.109375" style="7" customWidth="1"/>
+    <col min="3" max="6" width="21.109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1969,12 +1958,12 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -1982,30 +1971,30 @@
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="39">
         <f>C46-B46</f>
@@ -2028,9 +2017,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="39">
         <f>D46-C46</f>
@@ -2053,9 +2042,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="39">
         <f>E46-D46</f>
@@ -2078,7 +2067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -2086,7 +2075,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -2094,7 +2083,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -2102,7 +2091,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -2110,7 +2099,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -2118,7 +2107,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -2126,7 +2115,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -2134,7 +2123,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -2142,7 +2131,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -2150,7 +2139,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -2158,12 +2147,12 @@
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="51"/>
       <c r="C20" s="52"/>
@@ -2171,13 +2160,13 @@
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="21" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="23">
         <v>2000</v>
@@ -2192,120 +2181,120 @@
         <v>2015</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="36">
         <f>SUMIF($F$23:$F$31,"Yes",B23:B31)</f>
@@ -2326,13 +2315,13 @@
       <c r="F32" s="20"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="19" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="54"/>
       <c r="C34" s="55"/>
@@ -2341,7 +2330,7 @@
       <c r="F34" s="55"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="19" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5"/>
@@ -2350,7 +2339,7 @@
       <c r="F35" s="20"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23">
         <v>2000</v>
       </c>
@@ -2366,9 +2355,9 @@
       <c r="F36" s="20"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -2377,9 +2366,9 @@
       <c r="F37" s="20"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -2388,9 +2377,9 @@
       <c r="F38" s="20"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -2399,9 +2388,9 @@
       <c r="F39" s="20"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -2410,9 +2399,9 @@
       <c r="F40" s="20"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -2421,9 +2410,9 @@
       <c r="F41" s="20"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -2432,9 +2421,9 @@
       <c r="F42" s="20"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -2443,9 +2432,9 @@
       <c r="F43" s="20"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -2454,9 +2443,9 @@
       <c r="F44" s="20"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
@@ -2465,9 +2454,9 @@
       <c r="F45" s="20"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="35">
         <f>SUMIF($F$23:$F$31,"Yes",B37:B45)</f>
@@ -2488,7 +2477,7 @@
       <c r="F46" s="20"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -2496,7 +2485,7 @@
       <c r="F47" s="20"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2495,7 @@
       <c r="E48" s="47"/>
       <c r="F48" s="47"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="46"/>
       <c r="C49" s="47"/>
@@ -2514,13 +2503,13 @@
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
     </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>1</v>
       </c>
@@ -2530,10 +2519,8 @@
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
-        <v>2</v>
-      </c>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="45"/>
       <c r="B53" s="46"/>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
